--- a/DDAf_2025_Tableau_annexe_Tab03.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBEF8AD6-3FC2-4ECB-94AF-99F43E76FE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{341D8461-26D8-421E-BA11-2A65B7724F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{0B914296-3F52-4207-AECA-4165D379E428}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{30FE5F6E-7BBE-430A-BD9A-86A02B01BFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Figures up to 2024 are estimates. For 2025 onwards, they are projections.</t>
@@ -1552,7 +1552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E65D6E-6ABB-400A-9721-F8675077F3FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF80E578-5B8C-4615-B281-62BEC7A24BE0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1560,35 +1560,35 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" style="81" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.453125" style="81" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="34" max="43" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="34" max="43" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.1796875" style="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1635,7 +1635,7 @@
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
     </row>
-    <row r="2" spans="1:44" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>45</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>2.9555159999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>1.542511</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>1.010195</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>1.080705</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>2.5202070000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>2.7695180000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>57</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>1.851645</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>59</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>1.03301</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>61</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>2.690588</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>63</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>1.885618</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>65</v>
@@ -3241,7 +3241,7 @@
         <v>2.1166160000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>66</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>2.3751039999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>68</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>2.4826890000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>70</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>3.2783869999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>72</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>2.879947</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>74</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>2.34788</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>76</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>3.1144660000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>78</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>2.2868230000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>80</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>2.0259369999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>82</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>1.946431</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>84</v>
@@ -4579,7 +4579,7 @@
         <v>2.894692</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>85</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>1.7798959999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>87</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>1.2937399999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>89</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>2.1035170000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>91</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>2.443921</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>93</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>1.865313</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>95</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>2.3056320000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>97</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>-0.28305000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>99</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>2.0873270000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>101</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>1.1222970000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>103</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>3.1170979999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>105</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>2.0000710000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>108</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>2.5422750000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>110</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>2.780205</v>
       </c>
     </row>
-    <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>112</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>2.5618609999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>114</v>
@@ -6587,7 +6587,7 @@
         <v>2.4304860000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>115</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>1.1209290000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>117</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>1.440315</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>119</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>1.1202859999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>121</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>2.666566</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>123</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>0.78016399999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>125</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>0.44874999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>127</v>
@@ -7523,7 +7523,7 @@
         <v>1.2310449999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>128</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>2.3252660000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>130</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>2.1148959999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>132</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>0.42450300000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>134</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>2.3270960000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>136</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>2.0935540000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>138</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>1.7395750000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>140</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>2.1656680000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>142</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>2.0433949999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>144</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>2.1240649999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>146</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>2.8518569999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>148</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>3.0976180000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>150</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>2.0101960000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>152</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>2.2532429999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>154</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>1.909953</v>
       </c>
     </row>
-    <row r="60" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>156</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>2.1129419999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>158</v>
@@ -9665,7 +9665,7 @@
         <v>2.1572939999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>159</v>
@@ -9797,7 +9797,7 @@
         <v>2.1915170000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>160</v>
@@ -9929,7 +9929,7 @@
         <v>0.47865799999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>161</v>
@@ -10061,7 +10061,7 @@
         <v>0.59431500000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>162</v>
@@ -10193,7 +10193,7 @@
         <v>0.57937499999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>163</v>
@@ -10325,7 +10325,7 @@
         <v>0.81163300000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>164</v>
@@ -10457,7 +10457,7 @@
         <v>2.2962959999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>165</v>
@@ -10589,7 +10589,7 @@
         <v>2.0219640000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>166</v>
@@ -10721,7 +10721,7 @@
         <v>2.6297350000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>167</v>
@@ -10853,7 +10853,7 @@
         <v>2.8576320000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>168</v>
@@ -10985,7 +10985,7 @@
         <v>2.1572939999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>169</v>
@@ -11117,7 +11117,7 @@
         <v>2.3981819999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>170</v>
@@ -11249,7 +11249,7 @@
         <v>2.4993720000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>171</v>
@@ -11381,7 +11381,7 @@
         <v>1.005941</v>
       </c>
     </row>
-    <row r="75" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>172</v>
@@ -11513,7 +11513,7 @@
         <v>2.8248220000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>173</v>
@@ -11645,7 +11645,7 @@
         <v>0.62631199999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>174</v>
@@ -11777,7 +11777,7 @@
         <v>0.50272799999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>175</v>
@@ -11909,7 +11909,7 @@
         <v>-0.188247</v>
       </c>
     </row>
-    <row r="79" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>176</v>
@@ -12041,7 +12041,7 @@
         <v>0.22253899999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>177</v>
@@ -12173,7 +12173,7 @@
         <v>2.1043769999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>178</v>
@@ -12305,7 +12305,7 @@
         <v>0.91381800000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>179</v>
@@ -12437,7 +12437,7 @@
         <v>2.2004359999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>180</v>
@@ -12569,7 +12569,7 @@
         <v>0.44073400000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>181</v>
@@ -12701,7 +12701,7 @@
         <v>2.6823000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>182</v>
@@ -12833,7 +12833,7 @@
         <v>2.2315330000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>183</v>
@@ -12965,7 +12965,7 @@
         <v>2.0019979999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>184</v>
@@ -13097,7 +13097,7 @@
         <v>0.94813400000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>185</v>
@@ -13229,7 +13229,7 @@
         <v>1.1054379999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>186</v>
@@ -13361,7 +13361,7 @@
         <v>0.14214599999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>187</v>
@@ -13493,7 +13493,7 @@
         <v>0.13761999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>188</v>
@@ -13625,7 +13625,7 @@
         <v>2.6322380000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>189</v>
@@ -13757,7 +13757,7 @@
         <v>1.371227</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>190</v>
@@ -13889,7 +13889,7 @@
         <v>1.2733429999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>191</v>
@@ -14021,7 +14021,7 @@
         <v>0.69680600000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>192</v>
@@ -14153,7 +14153,7 @@
         <v>2.4941529999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>193</v>
@@ -14285,7 +14285,7 @@
         <v>1.435659</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>194</v>
@@ -14417,7 +14417,7 @@
         <v>2.447975</v>
       </c>
     </row>
-    <row r="98" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>195</v>
@@ -14549,7 +14549,7 @@
         <v>1.416466</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="76"/>
@@ -14595,7 +14595,7 @@
       <c r="AQ99" s="76"/>
       <c r="AR99" s="76"/>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>196</v>
       </c>
@@ -14642,7 +14642,7 @@
       <c r="AQ100" s="77"/>
       <c r="AR100" s="77"/>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>197</v>
       </c>
@@ -14689,7 +14689,7 @@
       <c r="AQ101" s="77"/>
       <c r="AR101" s="77"/>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>198</v>
       </c>
@@ -14736,7 +14736,7 @@
       <c r="AQ102" s="77"/>
       <c r="AR102" s="77"/>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>199</v>
       </c>
@@ -14783,7 +14783,7 @@
       <c r="AQ103" s="77"/>
       <c r="AR103" s="77"/>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>200</v>
       </c>
@@ -14830,7 +14830,7 @@
       <c r="AQ104" s="77"/>
       <c r="AR104" s="77"/>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>201</v>
       </c>
@@ -14877,7 +14877,7 @@
       <c r="AQ105" s="77"/>
       <c r="AR105" s="77"/>
     </row>
-    <row r="106" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="78"/>
       <c r="C106" s="77"/>
       <c r="D106" s="77"/>
@@ -14922,7 +14922,7 @@
       <c r="AQ106" s="77"/>
       <c r="AR106" s="77"/>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B107" s="79" t="s">
         <v>202</v>
       </c>
@@ -14969,7 +14969,7 @@
       <c r="AQ107" s="77"/>
       <c r="AR107" s="77"/>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="77"/>
       <c r="D108" s="77"/>
@@ -15014,7 +15014,7 @@
       <c r="AQ108" s="77"/>
       <c r="AR108" s="77"/>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B109" s="82" t="s">
         <v>204</v>
       </c>
@@ -15061,7 +15061,7 @@
       <c r="AQ109" s="77"/>
       <c r="AR109" s="77"/>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B110" s="82" t="s">
         <v>205</v>
       </c>
@@ -15108,7 +15108,7 @@
       <c r="AQ110" s="77"/>
       <c r="AR110" s="77"/>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B111" s="82" t="s">
         <v>206</v>
       </c>
@@ -15155,7 +15155,7 @@
       <c r="AQ111" s="77"/>
       <c r="AR111" s="77"/>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>203</v>
       </c>
@@ -15202,7 +15202,7 @@
       <c r="AQ112" s="77"/>
       <c r="AR112" s="77"/>
     </row>
-    <row r="113" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B113" s="80"/>
       <c r="C113" s="77"/>
       <c r="D113" s="77"/>
@@ -15249,11 +15249,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{33946EA6-CFA2-4A9B-8647-4980A1E1966F}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{FA6C7323-B810-44D2-AF65-3AFDD03BEEB1}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{2C31B1CD-39DA-4B86-843F-543036A26C32}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{75A22731-2B15-40E6-8FD0-8A64A9C41583}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{4988BDEC-A934-4AA0-AE07-C1C3B4184E7C}"/>
+    <hyperlink ref="B109" r:id="rId1" xr:uid="{BC7A400B-2422-4F32-8EBD-56B8ED0ABCEA}"/>
+    <hyperlink ref="B110" r:id="rId2" xr:uid="{B5B3575A-C408-4B59-9C2E-8DA12A57D6A4}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{8F68FA27-89F8-4570-A5B9-A52F33ABF642}"/>
+    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{0F469F91-8603-4789-97BD-BF511EAE1C5F}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{9645F37E-CBE4-4828-BDC8-EF9DAD8A795A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2025_Tableau_annexe_Tab03.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab03.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{341D8461-26D8-421E-BA11-2A65B7724F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4048EF68-FA3F-4AFD-A959-66727902D23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{30FE5F6E-7BBE-430A-BD9A-86A02B01BFC8}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{61A4CBD4-AD53-4118-B5F4-44B25BEB4F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab03" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab03'!$A$2:$AO$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab03'!$A$1:$AM$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab03'!$A$2:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab03'!$A$1:$AL$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,15 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="207">
-  <si>
-    <t>Table 3: Annual population growth rate, 1990-2030</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="200">
+  <si>
+    <t>Tableau 3 : Taux de croissance annuel de la population, 1990-2030</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
     <t>1990</t>
@@ -132,21 +132,9 @@
     <t>2017</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>2023</t>
   </si>
   <si>
@@ -156,28 +144,13 @@
     <t>2025</t>
   </si>
   <si>
-    <t>2026</t>
-  </si>
-  <si>
-    <t>2027</t>
-  </si>
-  <si>
-    <t>2028</t>
-  </si>
-  <si>
-    <t>2029</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>Average annual projected growth, 2025-30</t>
+    <t>Croissance annuelle moyenne projetée, 2025-30</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -213,19 +186,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -234,7 +207,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -246,58 +222,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -309,13 +285,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -333,7 +309,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -351,13 +327,13 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>..</t>
@@ -366,67 +342,67 @@
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -438,7 +414,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -450,7 +426,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -462,13 +438,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -498,7 +474,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -513,22 +489,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -537,19 +513,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -567,97 +543,101 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Figures up to 2024 are estimates. For 2025 onwards, they are projections.</t>
-  </si>
-  <si>
-    <t>Source: World Population Prospects 2024 - United Nations Department of Economic and Social Affairs Population Division.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Les chiffres jusqu’en 2024 sont des estimations. À partir de 2025, il s’agit de projections.</t>
+  </si>
+  <si>
+    <t>Source : Perspectives de la population mondiale 2024 – Division de la population du Département des affaires économiques et sociales des Nations Unies.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
@@ -806,17 +786,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <u/>
       <sz val="11"/>
-      <color rgb="FFA54917"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
@@ -1037,7 +1014,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1268,8 +1245,9 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1552,40 +1530,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF80E578-5B8C-4615-B281-62BEC7A24BE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E57BF4-86E9-47DC-B3BD-3211970DB153}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR113"/>
+  <dimension ref="A1:AR116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="34" max="43" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.1796875" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="82" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="43" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1635,7 +1614,7 @@
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
     </row>
-    <row r="2" spans="1:44" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:44" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1726,55 +1705,55 @@
       <c r="AD2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="7">
+        <v>2018</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>2021</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>2022</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AM2" s="7">
+        <v>2026</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>2027</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>2028</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>2029</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AR2" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C3" s="11">
         <v>3.4506019999999999</v>
@@ -1905,10 +1884,10 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C4" s="15">
         <v>2.788532</v>
@@ -2039,10 +2018,10 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C5" s="15">
         <v>4.1332060000000004</v>
@@ -2173,10 +2152,10 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C6" s="15">
         <v>1.929667</v>
@@ -2307,10 +2286,10 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C7" s="15">
         <v>4.0281510000000003</v>
@@ -2441,10 +2420,10 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C8" s="15">
         <v>1.454221</v>
@@ -2575,10 +2554,10 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C9" s="21">
         <v>6.234076</v>
@@ -2709,10 +2688,10 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C10" s="21">
         <v>2.8204189999999998</v>
@@ -2843,10 +2822,10 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C11" s="15">
         <v>2.5951689999999998</v>
@@ -2977,10 +2956,10 @@
     </row>
     <row r="12" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C12" s="23">
         <v>2.762175</v>
@@ -3110,9 +3089,11 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C13" s="28">
         <v>2.8426559999999998</v>
@@ -3243,10 +3224,10 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C14" s="21">
         <v>2.1080450000000002</v>
@@ -3377,10 +3358,10 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C15" s="21">
         <v>2.9908540000000001</v>
@@ -3511,10 +3492,10 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C16" s="21">
         <v>3.158798</v>
@@ -3645,10 +3626,10 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C17" s="32">
         <v>2.8051309999999998</v>
@@ -3779,10 +3760,10 @@
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C18" s="32">
         <v>2.8960590000000002</v>
@@ -3913,10 +3894,10 @@
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C19" s="15">
         <v>3.373634</v>
@@ -4047,10 +4028,10 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C20" s="32">
         <v>3.8234880000000002</v>
@@ -4181,10 +4162,10 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C21" s="32">
         <v>2.7787009999999999</v>
@@ -4315,10 +4296,10 @@
     </row>
     <row r="22" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C22" s="36">
         <v>2.501271</v>
@@ -4448,9 +4429,11 @@
       </c>
     </row>
     <row r="23" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C23" s="28">
         <v>3.1156619999999999</v>
@@ -4581,10 +4564,10 @@
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C24" s="40">
         <v>2.6536409999999999</v>
@@ -4715,10 +4698,10 @@
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C25" s="21">
         <v>10.735161</v>
@@ -4849,10 +4832,10 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C26" s="21">
         <v>2.3009369999999998</v>
@@ -4983,10 +4966,10 @@
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C27" s="21">
         <v>3.7708729999999999</v>
@@ -5117,10 +5100,10 @@
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C28" s="21">
         <v>3.5003289999999998</v>
@@ -5251,10 +5234,10 @@
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C29" s="21">
         <v>2.9956520000000002</v>
@@ -5385,10 +5368,10 @@
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C30" s="21">
         <v>1.212102</v>
@@ -5519,10 +5502,10 @@
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C31" s="21">
         <v>2.6528710000000002</v>
@@ -5653,10 +5636,10 @@
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C32" s="21">
         <v>1.183019</v>
@@ -5787,10 +5770,10 @@
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C33" s="21">
         <v>-0.44983600000000001</v>
@@ -5921,76 +5904,76 @@
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="N34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="O34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Q34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="R34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="S34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="T34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="U34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="V34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="W34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="X34" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Y34" s="33">
         <v>4.5502140000000004</v>
@@ -6055,10 +6038,10 @@
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C35" s="21">
         <v>1.7795430000000001</v>
@@ -6189,10 +6172,10 @@
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C36" s="21">
         <v>2.6394679999999999</v>
@@ -6323,10 +6306,10 @@
     </row>
     <row r="37" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C37" s="23">
         <v>3.287337</v>
@@ -6456,9 +6439,11 @@
       </c>
     </row>
     <row r="38" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="26"/>
+      <c r="A38" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C38" s="28">
         <v>2.900655</v>
@@ -6589,10 +6574,10 @@
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C39" s="44">
         <v>2.5099490000000002</v>
@@ -6723,10 +6708,10 @@
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C40" s="21">
         <v>2.9729450000000002</v>
@@ -6857,10 +6842,10 @@
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C41" s="32">
         <v>2.3560189999999999</v>
@@ -6991,10 +6976,10 @@
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C42" s="32">
         <v>2.5658840000000001</v>
@@ -7125,10 +7110,10 @@
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C43" s="21">
         <v>1.8218369999999999</v>
@@ -7259,10 +7244,10 @@
     </row>
     <row r="44" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C44" s="36">
         <v>2.1204149999999999</v>
@@ -7392,9 +7377,11 @@
       </c>
     </row>
     <row r="45" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="26" t="s">
+        <v>56</v>
+      </c>
       <c r="B45" s="27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C45" s="28">
         <v>2.560419</v>
@@ -7525,10 +7512,10 @@
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C46" s="40">
         <v>3.120514</v>
@@ -7659,10 +7646,10 @@
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C47" s="21">
         <v>2.6698390000000001</v>
@@ -7793,10 +7780,10 @@
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C48" s="32">
         <v>2.0728430000000002</v>
@@ -7927,10 +7914,10 @@
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C49" s="21">
         <v>4.0103859999999996</v>
@@ -8061,10 +8048,10 @@
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C50" s="21">
         <v>4.2851290000000004</v>
@@ -8195,10 +8182,10 @@
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C51" s="15">
         <v>2.5844</v>
@@ -8329,10 +8316,10 @@
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C52" s="21">
         <v>3.5162260000000001</v>
@@ -8463,10 +8450,10 @@
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C53" s="21">
         <v>1.657983</v>
@@ -8597,10 +8584,10 @@
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C54" s="21">
         <v>-11.684177999999999</v>
@@ -8731,10 +8718,10 @@
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C55" s="21">
         <v>1.987703</v>
@@ -8865,10 +8852,10 @@
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C56" s="21">
         <v>3.1274039999999999</v>
@@ -8999,10 +8986,10 @@
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C57" s="21">
         <v>2.7397469999999999</v>
@@ -9133,10 +9120,10 @@
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C58" s="21">
         <v>2.910037</v>
@@ -9267,10 +9254,10 @@
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C59" s="21">
         <v>4.0354359999999998</v>
@@ -9401,10 +9388,10 @@
     </row>
     <row r="60" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C60" s="23">
         <v>2.9703270000000002</v>
@@ -9536,7 +9523,7 @@
     <row r="61" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C61" s="28">
         <v>2.6638280000000001</v>
@@ -9668,7 +9655,7 @@
     <row r="62" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C62" s="50">
         <v>2.7810519999999999</v>
@@ -9800,7 +9787,7 @@
     <row r="63" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C63" s="50">
         <v>1.652811</v>
@@ -9932,7 +9919,7 @@
     <row r="64" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C64" s="55">
         <v>1.910107</v>
@@ -10064,7 +10051,7 @@
     <row r="65" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C65" s="59">
         <v>2.0525820000000001</v>
@@ -10196,7 +10183,7 @@
     <row r="66" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C66" s="63">
         <v>1.788584</v>
@@ -10328,7 +10315,7 @@
     <row r="67" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C67" s="59">
         <v>2.9800740000000001</v>
@@ -10460,7 +10447,7 @@
     <row r="68" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C68" s="59">
         <v>2.626039</v>
@@ -10592,7 +10579,7 @@
     <row r="69" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C69" s="59">
         <v>3.1123880000000002</v>
@@ -10724,7 +10711,7 @@
     <row r="70" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C70" s="59">
         <v>3.1209639999999998</v>
@@ -10856,7 +10843,7 @@
     <row r="71" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C71" s="59">
         <v>2.6638280000000001</v>
@@ -10988,7 +10975,7 @@
     <row r="72" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C72" s="59">
         <v>2.9893869999999998</v>
@@ -11120,7 +11107,7 @@
     <row r="73" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C73" s="59">
         <v>2.9222079999999999</v>
@@ -11252,7 +11239,7 @@
     <row r="74" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C74" s="59">
         <v>2.1896140000000002</v>
@@ -11384,7 +11371,7 @@
     <row r="75" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C75" s="66">
         <v>2.3523800000000001</v>
@@ -11516,7 +11503,7 @@
     <row r="76" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C76" s="70">
         <v>2.0413070000000002</v>
@@ -11648,7 +11635,7 @@
     <row r="77" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C77" s="59">
         <v>1.8904350000000001</v>
@@ -11780,7 +11767,7 @@
     <row r="78" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C78" s="59">
         <v>0.36208800000000002</v>
@@ -11912,7 +11899,7 @@
     <row r="79" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C79" s="63">
         <v>0.907725</v>
@@ -12044,7 +12031,7 @@
     <row r="80" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C80" s="70">
         <v>2.7652920000000001</v>
@@ -12176,7 +12163,7 @@
     <row r="81" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C81" s="59">
         <v>1.482073</v>
@@ -12308,7 +12295,7 @@
     <row r="82" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C82" s="59">
         <v>2.7824849999999999</v>
@@ -12440,7 +12427,7 @@
     <row r="83" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C83" s="63">
         <v>1.6664589999999999</v>
@@ -12572,7 +12559,7 @@
     <row r="84" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C84" s="70">
         <v>2.4349810000000001</v>
@@ -12704,7 +12691,7 @@
     <row r="85" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C85" s="59">
         <v>2.4100609999999998</v>
@@ -12836,7 +12823,7 @@
     <row r="86" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C86" s="59">
         <v>2.8606850000000001</v>
@@ -12968,7 +12955,7 @@
     <row r="87" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C87" s="59">
         <v>2.3219979999999998</v>
@@ -13100,7 +13087,7 @@
     <row r="88" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C88" s="59">
         <v>2.6649020000000001</v>
@@ -13232,7 +13219,7 @@
     <row r="89" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C89" s="59">
         <v>1.7326379999999999</v>
@@ -13364,7 +13351,7 @@
     <row r="90" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C90" s="63">
         <v>0.67862500000000003</v>
@@ -13496,7 +13483,7 @@
     <row r="91" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C91" s="70">
         <v>2.762896</v>
@@ -13628,7 +13615,7 @@
     <row r="92" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C92" s="59">
         <v>2.1474030000000002</v>
@@ -13760,7 +13747,7 @@
     <row r="93" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C93" s="59">
         <v>1.7142949999999999</v>
@@ -13892,7 +13879,7 @@
     <row r="94" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C94" s="59">
         <v>1.703565</v>
@@ -14024,7 +14011,7 @@
     <row r="95" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C95" s="59">
         <v>3.1703380000000001</v>
@@ -14156,7 +14143,7 @@
     <row r="96" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C96" s="63">
         <v>1.908372</v>
@@ -14288,7 +14275,7 @@
     <row r="97" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C97" s="70">
         <v>2.8312309999999998</v>
@@ -14420,7 +14407,7 @@
     <row r="98" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C98" s="63">
         <v>2.5452189999999999</v>
@@ -14597,7 +14584,7 @@
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C100" s="77"/>
       <c r="D100" s="77"/>
@@ -14644,7 +14631,7 @@
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C101" s="77"/>
       <c r="D101" s="77"/>
@@ -14691,7 +14678,7 @@
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C102" s="77"/>
       <c r="D102" s="77"/>
@@ -14738,7 +14725,7 @@
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C103" s="77"/>
       <c r="D103" s="77"/>
@@ -14785,7 +14772,7 @@
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C104" s="77"/>
       <c r="D104" s="77"/>
@@ -14832,7 +14819,7 @@
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C105" s="77"/>
       <c r="D105" s="77"/>
@@ -14878,6 +14865,9 @@
       <c r="AR105" s="77"/>
     </row>
     <row r="106" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="B106" s="78"/>
       <c r="C106" s="77"/>
       <c r="D106" s="77"/>
@@ -14922,10 +14912,8 @@
       <c r="AQ106" s="77"/>
       <c r="AR106" s="77"/>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B107" s="79" t="s">
-        <v>202</v>
-      </c>
+    <row r="107" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="78"/>
       <c r="C107" s="77"/>
       <c r="D107" s="77"/>
       <c r="E107" s="77"/>
@@ -14970,7 +14958,9 @@
       <c r="AR107" s="77"/>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="83" t="s">
+        <v>198</v>
+      </c>
       <c r="C108" s="77"/>
       <c r="D108" s="77"/>
       <c r="E108" s="77"/>
@@ -15015,9 +15005,7 @@
       <c r="AR108" s="77"/>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B109" s="82" t="s">
-        <v>204</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="77"/>
       <c r="D109" s="77"/>
       <c r="E109" s="77"/>
@@ -15062,8 +15050,8 @@
       <c r="AR109" s="77"/>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B110" s="82" t="s">
-        <v>205</v>
+      <c r="B110" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C110" s="77"/>
       <c r="D110" s="77"/>
@@ -15109,8 +15097,8 @@
       <c r="AR110" s="77"/>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B111" s="82" t="s">
-        <v>206</v>
+      <c r="B111" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C111" s="77"/>
       <c r="D111" s="77"/>
@@ -15156,8 +15144,8 @@
       <c r="AR111" s="77"/>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>203</v>
+      <c r="B112" s="83" t="s">
+        <v>199</v>
       </c>
       <c r="C112" s="77"/>
       <c r="D112" s="77"/>
@@ -15203,7 +15191,9 @@
       <c r="AR112" s="77"/>
     </row>
     <row r="113" spans="2:44" x14ac:dyDescent="0.35">
-      <c r="B113" s="80"/>
+      <c r="B113" s="83" t="s">
+        <v>197</v>
+      </c>
       <c r="C113" s="77"/>
       <c r="D113" s="77"/>
       <c r="E113" s="77"/>
@@ -15247,16 +15237,108 @@
       <c r="AQ113" s="77"/>
       <c r="AR113" s="77"/>
     </row>
+    <row r="114" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="B114" s="79"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="77"/>
+      <c r="N114" s="77"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="77"/>
+      <c r="R114" s="77"/>
+      <c r="S114" s="77"/>
+      <c r="T114" s="77"/>
+      <c r="U114" s="77"/>
+      <c r="V114" s="77"/>
+      <c r="W114" s="77"/>
+      <c r="X114" s="77"/>
+      <c r="Y114" s="77"/>
+      <c r="Z114" s="77"/>
+      <c r="AA114" s="77"/>
+      <c r="AB114" s="77"/>
+      <c r="AC114" s="77"/>
+      <c r="AD114" s="77"/>
+      <c r="AE114" s="77"/>
+      <c r="AF114" s="77"/>
+      <c r="AG114" s="77"/>
+      <c r="AH114" s="77"/>
+      <c r="AI114" s="77"/>
+      <c r="AJ114" s="77"/>
+      <c r="AK114" s="77"/>
+      <c r="AL114" s="77"/>
+      <c r="AM114" s="77"/>
+      <c r="AN114" s="77"/>
+      <c r="AO114" s="77"/>
+      <c r="AP114" s="77"/>
+      <c r="AQ114" s="77"/>
+      <c r="AR114" s="77"/>
+    </row>
+    <row r="115" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="B115" s="79"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="77"/>
+      <c r="H115" s="77"/>
+      <c r="I115" s="77"/>
+      <c r="J115" s="77"/>
+      <c r="K115" s="77"/>
+      <c r="L115" s="77"/>
+      <c r="M115" s="77"/>
+      <c r="N115" s="77"/>
+      <c r="O115" s="77"/>
+      <c r="P115" s="77"/>
+      <c r="Q115" s="77"/>
+      <c r="R115" s="77"/>
+      <c r="S115" s="77"/>
+      <c r="T115" s="77"/>
+      <c r="U115" s="77"/>
+      <c r="V115" s="77"/>
+      <c r="W115" s="77"/>
+      <c r="X115" s="77"/>
+      <c r="Y115" s="77"/>
+      <c r="Z115" s="77"/>
+      <c r="AA115" s="77"/>
+      <c r="AB115" s="77"/>
+      <c r="AC115" s="77"/>
+      <c r="AD115" s="77"/>
+      <c r="AE115" s="77"/>
+      <c r="AF115" s="77"/>
+      <c r="AG115" s="77"/>
+      <c r="AH115" s="77"/>
+      <c r="AI115" s="77"/>
+      <c r="AJ115" s="77"/>
+      <c r="AK115" s="77"/>
+      <c r="AL115" s="77"/>
+      <c r="AM115" s="77"/>
+      <c r="AN115" s="77"/>
+      <c r="AO115" s="77"/>
+      <c r="AP115" s="77"/>
+    </row>
+    <row r="116" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="B116" s="80"/>
+      <c r="C116" s="81"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{BC7A400B-2422-4F32-8EBD-56B8ED0ABCEA}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{B5B3575A-C408-4B59-9C2E-8DA12A57D6A4}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{8F68FA27-89F8-4570-A5B9-A52F33ABF642}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{0F469F91-8603-4789-97BD-BF511EAE1C5F}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{9645F37E-CBE4-4828-BDC8-EF9DAD8A795A}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{24482F12-9156-4D97-895B-FFF9F4B2DAB5}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E64D7550-7779-4BE2-ACD6-7895047D6D05}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{B07A4B2F-B61E-41F1-B63B-6C5590C9B3DE}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{EF1AD79F-E095-465A-B70F-E44C88AB7A1B}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{5219C2AB-678A-438E-BB77-1842653BBAD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
